--- a/PCB/BOM BreaksRGB_PPU.xlsx
+++ b/PCB/BOM BreaksRGB_PPU.xlsx
@@ -66,9 +66,6 @@
     <t>SOIC-8</t>
   </si>
   <si>
-    <t>74LVC1G04GV,125,</t>
-  </si>
-  <si>
     <t>SOT-23-5</t>
   </si>
   <si>
@@ -442,7 +439,10 @@
     <t>T491B226K016AT  kemet,  TR3B226K010C0700 vishay</t>
   </si>
   <si>
-    <t>SN74LVC1G17DBVR  TI</t>
+    <t xml:space="preserve">SN74LVC1G17DBVR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74LVC1G04GV,125, nexperia. 1 Gate Schmitt trigger inverter or 1 Gate inverter</t>
   </si>
 </sst>
 </file>
@@ -4593,7 +4593,7 @@
   <dimension ref="A4:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,6 +4607,7 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="72.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4629,25 +4630,25 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -4664,7 +4665,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -4673,7 +4674,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>7</v>
@@ -4682,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4708,7 +4709,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
@@ -4717,7 +4718,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4743,7 +4744,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -4752,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4778,7 +4779,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>13</v>
@@ -4799,7 +4800,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>15</v>
@@ -4817,21 +4818,22 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" s="22" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>137</v>
       </c>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -4843,16 +4845,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>19</v>
-      </c>
       <c r="H12" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="10"/>
@@ -4871,22 +4873,22 @@
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>24</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9"/>
@@ -4906,22 +4908,22 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>26</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="9"/>
@@ -4941,22 +4943,22 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="9"/>
@@ -4976,23 +4978,23 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -5011,68 +5013,68 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="3">
         <v>1206</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="16"/>
     </row>
@@ -5080,22 +5082,22 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>35</v>
-      </c>
       <c r="H20" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="7"/>
@@ -5114,25 +5116,25 @@
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="3">
         <v>1206</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -5150,22 +5152,22 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="9"/>
@@ -5184,22 +5186,22 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
         <v>9</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="9"/>
@@ -5217,22 +5219,22 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="9"/>
@@ -5252,22 +5254,22 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
@@ -5285,22 +5287,22 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
@@ -5318,22 +5320,22 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
@@ -5351,22 +5353,22 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
@@ -5383,22 +5385,22 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="5"/>
@@ -5416,22 +5418,22 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="5"/>
@@ -5449,22 +5451,22 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="3"/>
@@ -5480,22 +5482,22 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="4"/>
@@ -5512,22 +5514,22 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C33" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="7"/>
@@ -5546,25 +5548,25 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="I34" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5582,22 +5584,22 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E35" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="7">
         <v>1812</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="4"/>
@@ -5618,22 +5620,22 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1">
         <v>603</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I36" s="16"/>
       <c r="U36" s="2"/>
@@ -5642,22 +5644,22 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E37" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="7">
         <v>1206</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="7"/>
@@ -5676,22 +5678,22 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="4"/>
@@ -5709,22 +5711,22 @@
     <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="H39" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="5"/>
